--- a/SteamScrapedData.xlsx
+++ b/SteamScrapedData.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -484,10 +484,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.53</v>
+        <v>3.52</v>
       </c>
       <c r="D3" t="n">
-        <v>3.69</v>
+        <v>3.68</v>
       </c>
       <c r="E3" t="n">
         <v>0.1600000000000001</v>
@@ -495,159 +495,159 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rio 2022 Dust II Souvenir Package</t>
+          <t>Revolution Case</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.27</v>
+        <v>2.93</v>
       </c>
       <c r="D4" t="n">
-        <v>3.41</v>
+        <v>3.06</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1400000000000001</v>
+        <v>0.1299999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Revolution Case</t>
+          <t>Operation Phoenix Weapon Case</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.92</v>
+        <v>1.93</v>
       </c>
       <c r="D5" t="n">
-        <v>3.05</v>
+        <v>2.01</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1299999999999999</v>
+        <v>0.07999999999999985</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Operation Riptide Case</t>
+          <t>Gamma 2 Case</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.59</v>
+        <v>1.16</v>
       </c>
       <c r="D6" t="n">
-        <v>2.7</v>
+        <v>1.21</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1100000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Stockholm 2021 Contenders Sticker Capsule</t>
+          <t>Chroma 3 Case</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.21</v>
+        <v>0.9</v>
       </c>
       <c r="D7" t="n">
-        <v>2.31</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.03999999999999992</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Operation Phoenix Weapon Case</t>
+          <t>Spectrum 2 Case</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.92</v>
+        <v>0.79</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>0.82</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.02999999999999992</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gamma 2 Case</t>
+          <t>Dreams &amp; Nightmares Case</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.16</v>
+        <v>0.62</v>
       </c>
       <c r="D9" t="n">
-        <v>1.21</v>
+        <v>0.64</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gamma Case</t>
+          <t>Clutch Case</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.24</v>
+        <v>0.47</v>
       </c>
       <c r="D10" t="n">
-        <v>1.29</v>
+        <v>0.49</v>
       </c>
       <c r="E10" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Chroma 3 Case</t>
+          <t>Rio 2022 Challengers Sticker Capsule</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.96</v>
+        <v>0.44</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.46</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -655,29 +655,29 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="D12" t="n">
-        <v>0.74</v>
+        <v>0.65</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Clutch Case</t>
+          <t>Sticker | 00 Nation | Rio 2022</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.48</v>
+        <v>0.57</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5</v>
+        <v>0.59</v>
       </c>
       <c r="E13" t="n">
         <v>0.02000000000000002</v>
@@ -685,18 +685,18 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Rio 2022 Contenders Sticker Capsule</t>
+          <t>Antwerp 2022 Contenders Sticker Capsule</t>
         </is>
       </c>
       <c r="C14" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D14" t="n">
         <v>0.53</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.55</v>
       </c>
       <c r="E14" t="n">
         <v>0.02000000000000002</v>
@@ -704,26 +704,26 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Dreams &amp; Nightmares Case</t>
+          <t>Rio 2022 Contenders Sticker Capsule</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.62</v>
+        <v>0.55</v>
       </c>
       <c r="D15" t="n">
-        <v>0.64</v>
+        <v>0.57</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.01999999999999991</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -742,18 +742,18 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Rio 2022 Challengers Sticker Capsule</t>
+          <t>Snakebite Case</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.39</v>
+        <v>0.16</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="E17" t="n">
         <v>0.01000000000000001</v>
@@ -761,18 +761,18 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Snakebite Case</t>
+          <t>Prisma 2 Case</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="D18" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="E18" t="n">
         <v>0.01000000000000001</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="C19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D19" t="n">
         <v>0.26</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.27</v>
       </c>
       <c r="E19" t="n">
         <v>0.01000000000000001</v>
@@ -799,40 +799,40 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Rio 2022 Legends Sticker Capsule</t>
+          <t>AUG | Storm (Field-Tested)</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.36</v>
+        <v>0.03</v>
       </c>
       <c r="D20" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01000000000000001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MP5-SD | Dirt Drop (Field-Tested)</t>
+          <t>Rio 2022 Legends Sticker Capsule</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="D21" t="n">
-        <v>0.05</v>
+        <v>0.41</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01</v>
+        <v>0.009999999999999953</v>
       </c>
     </row>
   </sheetData>
